--- a/SPPSApi/Doc/Template/DailyPaper.xlsx
+++ b/SPPSApi/Doc/Template/DailyPaper.xlsx
@@ -18,11 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
-  <si>
-    <t>2021年04月22日 补给中心包装日报</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>系别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,7 +162,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,12 +187,6 @@
       <b/>
       <sz val="18"/>
       <name val="华文细黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -394,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -996,71 +986,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyAlignment="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="33" applyAlignment="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" applyAlignment="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="34" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1090,9 +1089,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,9 +1155,97 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,99 +1287,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="17" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1625,7 +1625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1636,166 +1638,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" thickBot="1">
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="57" t="str">
+        <f>Sheet2!N2&amp;"  补给中心包装日报"</f>
+        <v xml:space="preserve">  补给中心包装日报</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A3" s="65"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="J4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="L4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="M4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="N4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="24" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A5" s="66"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="74" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="47" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A6" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
-    </row>
-    <row r="6" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A6" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="60">
+      <c r="B6" s="39">
         <f>Sheet2!A2</f>
         <v>0</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="33">
         <f>Sheet2!B2</f>
         <v>0</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <f>Sheet2!C2</f>
         <v>0</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <f>Sheet2!D2</f>
         <v>0</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <f>Sheet2!E2</f>
         <v>0</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <f>Sheet2!F2</f>
         <v>0</v>
       </c>
@@ -1803,370 +1809,370 @@
         <f>Sheet2!G2</f>
         <v>0</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <f>Sheet2!H2</f>
         <v>0</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <f>Sheet2!I2</f>
         <v>0</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <f>Sheet2!J2</f>
         <v>0</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <f>Sheet2!K2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <f>Sheet2!L2</f>
         <v>0</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <f>Sheet2!M2</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61">
+      <c r="A7" s="59"/>
+      <c r="B7" s="40">
         <f>Sheet2!A3</f>
         <v>0</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="34">
         <f>Sheet2!B3</f>
         <v>0</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <f>Sheet2!C3</f>
         <v>0</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <f>Sheet2!D3</f>
         <v>0</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <f>Sheet2!E3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <f>Sheet2!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <f>Sheet2!G3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <f>Sheet2!H3</f>
         <v>0</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <f>Sheet2!I3</f>
         <v>0</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <f>Sheet2!J3</f>
         <v>0</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="26">
         <f>Sheet2!K3</f>
         <v>0</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="26">
         <f>Sheet2!L3</f>
         <v>0</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="27">
         <f>Sheet2!M3</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61">
+      <c r="A8" s="59"/>
+      <c r="B8" s="40">
         <f>Sheet2!A4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="34">
         <f>Sheet2!B4</f>
         <v>0</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <f>Sheet2!C4</f>
         <v>0</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <f>Sheet2!D4</f>
         <v>0</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <f>Sheet2!E4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <f>Sheet2!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <f>Sheet2!G4</f>
         <v>0</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <f>Sheet2!H4</f>
         <v>0</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <f>Sheet2!I4</f>
         <v>0</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <f>Sheet2!J4</f>
         <v>0</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="26">
         <f>Sheet2!K4</f>
         <v>0</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="26">
         <f>Sheet2!L4</f>
         <v>0</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="27">
         <f>Sheet2!M4</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61">
+      <c r="A9" s="59"/>
+      <c r="B9" s="40">
         <f>Sheet2!A5</f>
         <v>0</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="34">
         <f>Sheet2!B5</f>
         <v>0</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <f>Sheet2!C5</f>
         <v>0</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <f>Sheet2!D5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <f>Sheet2!E5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <f>Sheet2!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <f>Sheet2!G5</f>
         <v>0</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <f>Sheet2!H5</f>
         <v>0</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <f>Sheet2!I5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="26">
         <f>Sheet2!J5</f>
         <v>0</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="26">
         <f>Sheet2!K5</f>
         <v>0</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="26">
         <f>Sheet2!L5</f>
         <v>0</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="27">
         <f>Sheet2!M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61">
+      <c r="A10" s="59"/>
+      <c r="B10" s="40">
         <f>Sheet2!A6</f>
         <v>0</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="34">
         <f>Sheet2!B6</f>
         <v>0</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <f>Sheet2!C6</f>
         <v>0</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f>Sheet2!D6</f>
         <v>0</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <f>Sheet2!E6</f>
         <v>0</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <f>Sheet2!F6</f>
         <v>0</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <f>Sheet2!G6</f>
         <v>0</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <f>Sheet2!H6</f>
         <v>0</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <f>Sheet2!I6</f>
         <v>0</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="26">
         <f>Sheet2!J6</f>
         <v>0</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="26">
         <f>Sheet2!K6</f>
         <v>0</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="26">
         <f>Sheet2!L6</f>
         <v>0</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
         <f>Sheet2!M6</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61">
+      <c r="A11" s="59"/>
+      <c r="B11" s="40">
         <f>Sheet2!A7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="34">
         <f>Sheet2!B7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <f>Sheet2!C7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <f>Sheet2!D7</f>
         <v>0</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <f>Sheet2!E7</f>
         <v>0</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <f>Sheet2!F7</f>
         <v>0</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <f>Sheet2!G7</f>
         <v>0</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <f>Sheet2!H7</f>
         <v>0</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <f>Sheet2!I7</f>
         <v>0</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="26">
         <f>Sheet2!J7</f>
         <v>0</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="26">
         <f>Sheet2!K7</f>
         <v>0</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="26">
         <f>Sheet2!L7</f>
         <v>0</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="27">
         <f>Sheet2!M7</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="62">
+      <c r="A12" s="77"/>
+      <c r="B12" s="41">
         <f>Sheet2!A8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="35">
         <f>Sheet2!B8</f>
         <v>0</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <f>Sheet2!C8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <f>Sheet2!D8</f>
         <v>0</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <f>Sheet2!E8</f>
         <v>0</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <f>Sheet2!F8</f>
         <v>0</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <f>Sheet2!G8</f>
         <v>0</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="28">
         <f>Sheet2!H8</f>
         <v>0</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="28">
         <f>Sheet2!I8</f>
         <v>0</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="28">
         <f>Sheet2!J8</f>
         <v>0</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="28">
         <f>Sheet2!K8</f>
         <v>0</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="28">
         <f>Sheet2!L8</f>
         <v>0</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="30">
         <f>Sheet2!M8</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A13" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="60">
+      <c r="A13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="39">
         <f>Sheet2!A9</f>
         <v>0</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="36">
         <f>Sheet2!B9</f>
         <v>0</v>
       </c>
@@ -2216,12 +2222,12 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61">
+      <c r="A14" s="59"/>
+      <c r="B14" s="40">
         <f>Sheet2!A10</f>
         <v>0</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="37">
         <f>Sheet2!B10</f>
         <v>0</v>
       </c>
@@ -2241,7 +2247,7 @@
         <f>Sheet2!F10</f>
         <v>0</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="32">
         <f>Sheet2!G10</f>
         <v>0</v>
       </c>
@@ -2271,12 +2277,12 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61">
+      <c r="A15" s="59"/>
+      <c r="B15" s="40">
         <f>Sheet2!A11</f>
         <v>0</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="37">
         <f>Sheet2!B11</f>
         <v>0</v>
       </c>
@@ -2296,7 +2302,7 @@
         <f>Sheet2!F11</f>
         <v>0</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="32">
         <f>Sheet2!G11</f>
         <v>0</v>
       </c>
@@ -2326,12 +2332,12 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61">
+      <c r="A16" s="59"/>
+      <c r="B16" s="40">
         <f>Sheet2!A12</f>
         <v>0</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="37">
         <f>Sheet2!B12</f>
         <v>0</v>
       </c>
@@ -2351,7 +2357,7 @@
         <f>Sheet2!F12</f>
         <v>0</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="32">
         <f>Sheet2!G12</f>
         <v>0</v>
       </c>
@@ -2381,12 +2387,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61">
+      <c r="A17" s="59"/>
+      <c r="B17" s="40">
         <f>Sheet2!A13</f>
         <v>0</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="37">
         <f>Sheet2!B13</f>
         <v>0</v>
       </c>
@@ -2406,7 +2412,7 @@
         <f>Sheet2!F13</f>
         <v>0</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <f>Sheet2!G13</f>
         <v>0</v>
       </c>
@@ -2436,12 +2442,12 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61">
+      <c r="A18" s="59"/>
+      <c r="B18" s="40">
         <f>Sheet2!A14</f>
         <v>0</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="37">
         <f>Sheet2!B14</f>
         <v>0</v>
       </c>
@@ -2461,7 +2467,7 @@
         <f>Sheet2!F14</f>
         <v>0</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="32">
         <f>Sheet2!G14</f>
         <v>0</v>
       </c>
@@ -2491,12 +2497,12 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="62">
+      <c r="A19" s="60"/>
+      <c r="B19" s="41">
         <f>Sheet2!A15</f>
         <v>0</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="38">
         <f>Sheet2!B15</f>
         <v>0</v>
       </c>
@@ -2546,394 +2552,395 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A20" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="64">
+      <c r="A20" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="42">
         <f>Sheet2!A16</f>
         <v>0</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="43">
         <f>Sheet2!B16</f>
         <v>0</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="44">
         <f>Sheet2!C16</f>
         <v>0</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="44">
         <f>Sheet2!D16</f>
         <v>0</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="44">
         <f>Sheet2!E16</f>
         <v>0</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="45">
         <f>Sheet2!F16</f>
         <v>0</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="46">
         <f>Sheet2!G16</f>
         <v>0</v>
       </c>
-      <c r="I20" s="66">
+      <c r="I20" s="44">
         <f>Sheet2!H16</f>
         <v>0</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="44">
         <f>Sheet2!I16</f>
         <v>0</v>
       </c>
-      <c r="K20" s="66">
+      <c r="K20" s="44">
         <f>Sheet2!J16</f>
         <v>0</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="44">
         <f>Sheet2!K16</f>
         <v>0</v>
       </c>
-      <c r="M20" s="66">
+      <c r="M20" s="44">
         <f>Sheet2!L16</f>
         <v>0</v>
       </c>
-      <c r="N20" s="67">
+      <c r="N20" s="45">
         <f>Sheet2!M16</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70">
+      <c r="A21" s="62"/>
+      <c r="B21" s="47">
         <f>Sheet2!A17</f>
         <v>0</v>
       </c>
-      <c r="C21" s="71">
+      <c r="C21" s="48">
         <f>Sheet2!B17</f>
         <v>0</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="49">
         <f>Sheet2!C17</f>
         <v>0</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="49">
         <f>Sheet2!D17</f>
         <v>0</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="49">
         <f>Sheet2!E17</f>
         <v>0</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="50">
         <f>Sheet2!F17</f>
         <v>0</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="51">
         <f>Sheet2!G17</f>
         <v>0</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="49">
         <f>Sheet2!H17</f>
         <v>0</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="49">
         <f>Sheet2!I17</f>
         <v>0</v>
       </c>
-      <c r="K21" s="72">
+      <c r="K21" s="49">
         <f>Sheet2!J17</f>
         <v>0</v>
       </c>
-      <c r="L21" s="72">
+      <c r="L21" s="49">
         <f>Sheet2!K17</f>
         <v>0</v>
       </c>
-      <c r="M21" s="72">
+      <c r="M21" s="49">
         <f>Sheet2!L17</f>
         <v>0</v>
       </c>
-      <c r="N21" s="73">
+      <c r="N21" s="50">
         <f>Sheet2!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70">
+      <c r="A22" s="62"/>
+      <c r="B22" s="47">
         <f>Sheet2!A18</f>
         <v>0</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="48">
         <f>Sheet2!B18</f>
         <v>0</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="49">
         <f>Sheet2!C18</f>
         <v>0</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="49">
         <f>Sheet2!D18</f>
         <v>0</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="49">
         <f>Sheet2!E18</f>
         <v>0</v>
       </c>
-      <c r="G22" s="73">
+      <c r="G22" s="50">
         <f>Sheet2!F18</f>
         <v>0</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="51">
         <f>Sheet2!G18</f>
         <v>0</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="49">
         <f>Sheet2!H18</f>
         <v>0</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="49">
         <f>Sheet2!I18</f>
         <v>0</v>
       </c>
-      <c r="K22" s="72">
+      <c r="K22" s="49">
         <f>Sheet2!J18</f>
         <v>0</v>
       </c>
-      <c r="L22" s="72">
+      <c r="L22" s="49">
         <f>Sheet2!K18</f>
         <v>0</v>
       </c>
-      <c r="M22" s="72">
+      <c r="M22" s="49">
         <f>Sheet2!L18</f>
         <v>0</v>
       </c>
-      <c r="N22" s="73">
+      <c r="N22" s="50">
         <f>Sheet2!M18</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70">
+      <c r="A23" s="62"/>
+      <c r="B23" s="47">
         <f>Sheet2!A19</f>
         <v>0</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="48">
         <f>Sheet2!B19</f>
         <v>0</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="49">
         <f>Sheet2!C19</f>
         <v>0</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="49">
         <f>Sheet2!D19</f>
         <v>0</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F23" s="49">
         <f>Sheet2!E19</f>
         <v>0</v>
       </c>
-      <c r="G23" s="73">
+      <c r="G23" s="50">
         <f>Sheet2!F19</f>
         <v>0</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="51">
         <f>Sheet2!G19</f>
         <v>0</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="49">
         <f>Sheet2!H19</f>
         <v>0</v>
       </c>
-      <c r="J23" s="72">
+      <c r="J23" s="49">
         <f>Sheet2!I19</f>
         <v>0</v>
       </c>
-      <c r="K23" s="72">
+      <c r="K23" s="49">
         <f>Sheet2!J19</f>
         <v>0</v>
       </c>
-      <c r="L23" s="72">
+      <c r="L23" s="49">
         <f>Sheet2!K19</f>
         <v>0</v>
       </c>
-      <c r="M23" s="72">
+      <c r="M23" s="49">
         <f>Sheet2!L19</f>
         <v>0</v>
       </c>
-      <c r="N23" s="73">
+      <c r="N23" s="50">
         <f>Sheet2!M19</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70">
+      <c r="A24" s="62"/>
+      <c r="B24" s="47">
         <f>Sheet2!A20</f>
         <v>0</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="48">
         <f>Sheet2!B20</f>
         <v>0</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="49">
         <f>Sheet2!C20</f>
         <v>0</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="49">
         <f>Sheet2!D20</f>
         <v>0</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F24" s="49">
         <f>Sheet2!E20</f>
         <v>0</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="50">
         <f>Sheet2!F20</f>
         <v>0</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="51">
         <f>Sheet2!G20</f>
         <v>0</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="49">
         <f>Sheet2!H20</f>
         <v>0</v>
       </c>
-      <c r="J24" s="72">
+      <c r="J24" s="49">
         <f>Sheet2!I20</f>
         <v>0</v>
       </c>
-      <c r="K24" s="72">
+      <c r="K24" s="49">
         <f>Sheet2!J20</f>
         <v>0</v>
       </c>
-      <c r="L24" s="72">
+      <c r="L24" s="49">
         <f>Sheet2!K20</f>
         <v>0</v>
       </c>
-      <c r="M24" s="72">
+      <c r="M24" s="49">
         <f>Sheet2!L20</f>
         <v>0</v>
       </c>
-      <c r="N24" s="73">
+      <c r="N24" s="50">
         <f>Sheet2!M20</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70">
+      <c r="A25" s="62"/>
+      <c r="B25" s="47">
         <f>Sheet2!A21</f>
         <v>0</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="48">
         <f>Sheet2!B21</f>
         <v>0</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="49">
         <f>Sheet2!C21</f>
         <v>0</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="49">
         <f>Sheet2!D21</f>
         <v>0</v>
       </c>
-      <c r="F25" s="72">
+      <c r="F25" s="49">
         <f>Sheet2!E21</f>
         <v>0</v>
       </c>
-      <c r="G25" s="73">
+      <c r="G25" s="50">
         <f>Sheet2!F21</f>
         <v>0</v>
       </c>
-      <c r="H25" s="74">
+      <c r="H25" s="51">
         <f>Sheet2!G21</f>
         <v>0</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="49">
         <f>Sheet2!H21</f>
         <v>0</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="49">
         <f>Sheet2!I21</f>
         <v>0</v>
       </c>
-      <c r="K25" s="72">
+      <c r="K25" s="49">
         <f>Sheet2!J21</f>
         <v>0</v>
       </c>
-      <c r="L25" s="72">
+      <c r="L25" s="49">
         <f>Sheet2!K21</f>
         <v>0</v>
       </c>
-      <c r="M25" s="72">
+      <c r="M25" s="49">
         <f>Sheet2!L21</f>
         <v>0</v>
       </c>
-      <c r="N25" s="73">
+      <c r="N25" s="50">
         <f>Sheet2!M21</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="75"/>
-      <c r="B26" s="76">
+      <c r="A26" s="63"/>
+      <c r="B26" s="52">
         <f>Sheet2!A22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="53">
         <f>Sheet2!B22</f>
         <v>0</v>
       </c>
-      <c r="D26" s="78">
+      <c r="D26" s="54">
         <f>Sheet2!C22</f>
         <v>0</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="54">
         <f>Sheet2!D22</f>
         <v>0</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="54">
         <f>Sheet2!E22</f>
         <v>0</v>
       </c>
-      <c r="G26" s="79">
+      <c r="G26" s="55">
         <f>Sheet2!F22</f>
         <v>0</v>
       </c>
-      <c r="H26" s="80">
+      <c r="H26" s="56">
         <f>Sheet2!G22</f>
         <v>0</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="54">
         <f>Sheet2!H22</f>
         <v>0</v>
       </c>
-      <c r="J26" s="78">
+      <c r="J26" s="54">
         <f>Sheet2!I22</f>
         <v>0</v>
       </c>
-      <c r="K26" s="78">
+      <c r="K26" s="54">
         <f>Sheet2!J22</f>
         <v>0</v>
       </c>
-      <c r="L26" s="78">
+      <c r="L26" s="54">
         <f>Sheet2!K22</f>
         <v>0</v>
       </c>
-      <c r="M26" s="78">
+      <c r="M26" s="54">
         <f>Sheet2!L22</f>
         <v>0</v>
       </c>
-      <c r="N26" s="79">
+      <c r="N26" s="55">
         <f>Sheet2!M22</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B1:N1"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="A2:A5"/>
@@ -2955,369 +2962,369 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="34"/>
+    <col min="1" max="16384" width="9" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="36" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:13" ht="13.5">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="1:13" ht="13.5">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
     </row>
     <row r="4" spans="1:13" ht="13.5">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
     </row>
     <row r="5" spans="1:13" ht="13.5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" ht="13.5">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:13" ht="13.5">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:13" ht="13.5">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:13" ht="13.5">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="1:13" ht="13.5">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
     </row>
     <row r="11" spans="1:13" ht="13.5">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
     </row>
     <row r="12" spans="1:13" ht="13.5">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:13" ht="13.5">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:13" ht="13.5">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
     </row>
     <row r="15" spans="1:13" ht="13.5">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13" ht="13.5">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="13.5">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" ht="13.5">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
     </row>
     <row r="19" spans="1:13" ht="13.5">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
     </row>
     <row r="20" spans="1:13" ht="13.5">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
     </row>
     <row r="21" spans="1:13" ht="13.5">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
     </row>
     <row r="22" spans="1:13" ht="13.5">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SPPSApi/Doc/Template/DailyPaper.xlsx
+++ b/SPPSApi/Doc/Template/DailyPaper.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>系别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>包装计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实行计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入荷实绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装实绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装差额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I=H/G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时
+完成率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,39 +113,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J=I/G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K=I/H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L=G-I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实行计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入荷实绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装实绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装差额</t>
+    <t>J=G-H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,47 +127,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实绩在线
-工时(H)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实绩包装
 工时(H)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工时
-完成率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作业
 工时差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计</t>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=B-D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I=&gt;H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J=I/G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K=I/H=&gt;I=H/G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=G-I=&gt;J=G-H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +398,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="48">
     <border>
@@ -1059,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,75 +1248,84 @@
     <xf numFmtId="49" fontId="0" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="18" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1623,63 +1653,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="10" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="10.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="10" customWidth="1"/>
+    <col min="3" max="12" width="11.625" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" thickBot="1">
-      <c r="B1" s="57" t="str">
+    <row r="1" spans="1:12" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="83" t="str">
         <f>Sheet2!N2&amp;"  补给中心包装日报"</f>
         <v xml:space="preserve">  补给中心包装日报</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="67" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="68"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A3" s="70"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1695,91 +1722,77 @@
       <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A4" s="70"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="E4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="F4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="G4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="H4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="79" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="16" t="s">
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A6" s="63" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
-    </row>
-    <row r="6" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A6" s="58" t="s">
-        <v>29</v>
       </c>
       <c r="B6" s="39">
         <f>Sheet2!A2</f>
@@ -1814,28 +1827,20 @@
         <v>0</v>
       </c>
       <c r="J6" s="24">
-        <f>Sheet2!I2</f>
+        <f>Sheet2!J2</f>
         <v>0</v>
       </c>
       <c r="K6" s="24">
-        <f>Sheet2!J2</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="24">
         <f>Sheet2!K2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="24">
-        <f>Sheet2!L2</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="25">
+      <c r="L6" s="25">
         <f>Sheet2!M2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A7" s="59"/>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A7" s="64"/>
       <c r="B7" s="40">
         <f>Sheet2!A3</f>
         <v>0</v>
@@ -1869,28 +1874,20 @@
         <v>0</v>
       </c>
       <c r="J7" s="26">
-        <f>Sheet2!I3</f>
+        <f>Sheet2!J3</f>
         <v>0</v>
       </c>
       <c r="K7" s="26">
-        <f>Sheet2!J3</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="26">
         <f>Sheet2!K3</f>
         <v>0</v>
       </c>
-      <c r="M7" s="26">
-        <f>Sheet2!L3</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="27">
+      <c r="L7" s="27">
         <f>Sheet2!M3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A8" s="59"/>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A8" s="64"/>
       <c r="B8" s="40">
         <f>Sheet2!A4</f>
         <v>0</v>
@@ -1924,28 +1921,20 @@
         <v>0</v>
       </c>
       <c r="J8" s="26">
-        <f>Sheet2!I4</f>
+        <f>Sheet2!J4</f>
         <v>0</v>
       </c>
       <c r="K8" s="26">
-        <f>Sheet2!J4</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="26">
         <f>Sheet2!K4</f>
         <v>0</v>
       </c>
-      <c r="M8" s="26">
-        <f>Sheet2!L4</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="27">
+      <c r="L8" s="27">
         <f>Sheet2!M4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A9" s="59"/>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A9" s="64"/>
       <c r="B9" s="40">
         <f>Sheet2!A5</f>
         <v>0</v>
@@ -1979,28 +1968,20 @@
         <v>0</v>
       </c>
       <c r="J9" s="26">
-        <f>Sheet2!I5</f>
+        <f>Sheet2!J5</f>
         <v>0</v>
       </c>
       <c r="K9" s="26">
-        <f>Sheet2!J5</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="26">
         <f>Sheet2!K5</f>
         <v>0</v>
       </c>
-      <c r="M9" s="26">
-        <f>Sheet2!L5</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="27">
+      <c r="L9" s="27">
         <f>Sheet2!M5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A10" s="59"/>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A10" s="64"/>
       <c r="B10" s="40">
         <f>Sheet2!A6</f>
         <v>0</v>
@@ -2034,28 +2015,20 @@
         <v>0</v>
       </c>
       <c r="J10" s="26">
-        <f>Sheet2!I6</f>
+        <f>Sheet2!J6</f>
         <v>0</v>
       </c>
       <c r="K10" s="26">
-        <f>Sheet2!J6</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="26">
         <f>Sheet2!K6</f>
         <v>0</v>
       </c>
-      <c r="M10" s="26">
-        <f>Sheet2!L6</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="27">
+      <c r="L10" s="27">
         <f>Sheet2!M6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A11" s="64"/>
       <c r="B11" s="40">
         <f>Sheet2!A7</f>
         <v>0</v>
@@ -2089,28 +2062,20 @@
         <v>0</v>
       </c>
       <c r="J11" s="26">
-        <f>Sheet2!I7</f>
+        <f>Sheet2!J7</f>
         <v>0</v>
       </c>
       <c r="K11" s="26">
-        <f>Sheet2!J7</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="26">
         <f>Sheet2!K7</f>
         <v>0</v>
       </c>
-      <c r="M11" s="26">
-        <f>Sheet2!L7</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="27">
+      <c r="L11" s="27">
         <f>Sheet2!M7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A12" s="77"/>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A12" s="82"/>
       <c r="B12" s="41">
         <f>Sheet2!A8</f>
         <v>0</v>
@@ -2144,29 +2109,21 @@
         <v>0</v>
       </c>
       <c r="J12" s="28">
-        <f>Sheet2!I8</f>
+        <f>Sheet2!J8</f>
         <v>0</v>
       </c>
       <c r="K12" s="28">
-        <f>Sheet2!J8</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="28">
         <f>Sheet2!K8</f>
         <v>0</v>
       </c>
-      <c r="M12" s="28">
-        <f>Sheet2!L8</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="30">
+      <c r="L12" s="30">
         <f>Sheet2!M8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A13" s="58" t="s">
-        <v>30</v>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A13" s="63" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="39">
         <f>Sheet2!A9</f>
@@ -2201,28 +2158,20 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <f>Sheet2!I9</f>
+        <f>Sheet2!J9</f>
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <f>Sheet2!J9</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
         <f>Sheet2!K9</f>
         <v>0</v>
       </c>
-      <c r="M13" s="1">
-        <f>Sheet2!L9</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="L13" s="2">
         <f>Sheet2!M9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A14" s="59"/>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A14" s="64"/>
       <c r="B14" s="40">
         <f>Sheet2!A10</f>
         <v>0</v>
@@ -2256,28 +2205,20 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <f>Sheet2!I10</f>
+        <f>Sheet2!J10</f>
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <f>Sheet2!J10</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
         <f>Sheet2!K10</f>
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <f>Sheet2!L10</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="L14" s="4">
         <f>Sheet2!M10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A15" s="64"/>
       <c r="B15" s="40">
         <f>Sheet2!A11</f>
         <v>0</v>
@@ -2311,28 +2252,20 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <f>Sheet2!I11</f>
+        <f>Sheet2!J11</f>
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <f>Sheet2!J11</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
         <f>Sheet2!K11</f>
         <v>0</v>
       </c>
-      <c r="M15" s="3">
-        <f>Sheet2!L11</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="L15" s="4">
         <f>Sheet2!M11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A16" s="59"/>
+    <row r="16" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A16" s="64"/>
       <c r="B16" s="40">
         <f>Sheet2!A12</f>
         <v>0</v>
@@ -2366,28 +2299,20 @@
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <f>Sheet2!I12</f>
+        <f>Sheet2!J12</f>
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <f>Sheet2!J12</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
         <f>Sheet2!K12</f>
         <v>0</v>
       </c>
-      <c r="M16" s="3">
-        <f>Sheet2!L12</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="L16" s="4">
         <f>Sheet2!M12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A17" s="59"/>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A17" s="64"/>
       <c r="B17" s="40">
         <f>Sheet2!A13</f>
         <v>0</v>
@@ -2421,28 +2346,20 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f>Sheet2!I13</f>
+        <f>Sheet2!J13</f>
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <f>Sheet2!J13</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
         <f>Sheet2!K13</f>
         <v>0</v>
       </c>
-      <c r="M17" s="3">
-        <f>Sheet2!L13</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="L17" s="4">
         <f>Sheet2!M13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A18" s="64"/>
       <c r="B18" s="40">
         <f>Sheet2!A14</f>
         <v>0</v>
@@ -2476,28 +2393,20 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f>Sheet2!I14</f>
+        <f>Sheet2!J14</f>
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <f>Sheet2!J14</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
         <f>Sheet2!K14</f>
         <v>0</v>
       </c>
-      <c r="M18" s="3">
-        <f>Sheet2!L14</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="L18" s="4">
         <f>Sheet2!M14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="60"/>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A19" s="65"/>
       <c r="B19" s="41">
         <f>Sheet2!A15</f>
         <v>0</v>
@@ -2531,29 +2440,21 @@
         <v>0</v>
       </c>
       <c r="J19" s="5">
-        <f>Sheet2!I15</f>
+        <f>Sheet2!J15</f>
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <f>Sheet2!J15</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
         <f>Sheet2!K15</f>
         <v>0</v>
       </c>
-      <c r="M19" s="5">
-        <f>Sheet2!L15</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
+      <c r="L19" s="6">
         <f>Sheet2!M15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A20" s="61" t="s">
-        <v>31</v>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A20" s="66" t="s">
+        <v>17</v>
       </c>
       <c r="B20" s="42">
         <f>Sheet2!A16</f>
@@ -2588,28 +2489,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="44">
-        <f>Sheet2!I16</f>
+        <f>Sheet2!J16</f>
         <v>0</v>
       </c>
       <c r="K20" s="44">
-        <f>Sheet2!J16</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="44">
         <f>Sheet2!K16</f>
         <v>0</v>
       </c>
-      <c r="M20" s="44">
-        <f>Sheet2!L16</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="45">
+      <c r="L20" s="45">
         <f>Sheet2!M16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A21" s="62"/>
+    <row r="21" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A21" s="67"/>
       <c r="B21" s="47">
         <f>Sheet2!A17</f>
         <v>0</v>
@@ -2643,28 +2536,20 @@
         <v>0</v>
       </c>
       <c r="J21" s="49">
-        <f>Sheet2!I17</f>
+        <f>Sheet2!J17</f>
         <v>0</v>
       </c>
       <c r="K21" s="49">
-        <f>Sheet2!J17</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="49">
         <f>Sheet2!K17</f>
         <v>0</v>
       </c>
-      <c r="M21" s="49">
-        <f>Sheet2!L17</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="50">
+      <c r="L21" s="50">
         <f>Sheet2!M17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A22" s="62"/>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A22" s="67"/>
       <c r="B22" s="47">
         <f>Sheet2!A18</f>
         <v>0</v>
@@ -2698,28 +2583,20 @@
         <v>0</v>
       </c>
       <c r="J22" s="49">
-        <f>Sheet2!I18</f>
+        <f>Sheet2!J18</f>
         <v>0</v>
       </c>
       <c r="K22" s="49">
-        <f>Sheet2!J18</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="49">
         <f>Sheet2!K18</f>
         <v>0</v>
       </c>
-      <c r="M22" s="49">
-        <f>Sheet2!L18</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="50">
+      <c r="L22" s="50">
         <f>Sheet2!M18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A23" s="62"/>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A23" s="67"/>
       <c r="B23" s="47">
         <f>Sheet2!A19</f>
         <v>0</v>
@@ -2753,28 +2630,20 @@
         <v>0</v>
       </c>
       <c r="J23" s="49">
-        <f>Sheet2!I19</f>
+        <f>Sheet2!J19</f>
         <v>0</v>
       </c>
       <c r="K23" s="49">
-        <f>Sheet2!J19</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="49">
         <f>Sheet2!K19</f>
         <v>0</v>
       </c>
-      <c r="M23" s="49">
-        <f>Sheet2!L19</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="50">
+      <c r="L23" s="50">
         <f>Sheet2!M19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A24" s="62"/>
+    <row r="24" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A24" s="67"/>
       <c r="B24" s="47">
         <f>Sheet2!A20</f>
         <v>0</v>
@@ -2808,28 +2677,20 @@
         <v>0</v>
       </c>
       <c r="J24" s="49">
-        <f>Sheet2!I20</f>
+        <f>Sheet2!J20</f>
         <v>0</v>
       </c>
       <c r="K24" s="49">
-        <f>Sheet2!J20</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="49">
         <f>Sheet2!K20</f>
         <v>0</v>
       </c>
-      <c r="M24" s="49">
-        <f>Sheet2!L20</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="50">
+      <c r="L24" s="50">
         <f>Sheet2!M20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A25" s="62"/>
+    <row r="25" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A25" s="67"/>
       <c r="B25" s="47">
         <f>Sheet2!A21</f>
         <v>0</v>
@@ -2863,28 +2724,20 @@
         <v>0</v>
       </c>
       <c r="J25" s="49">
-        <f>Sheet2!I21</f>
+        <f>Sheet2!J21</f>
         <v>0</v>
       </c>
       <c r="K25" s="49">
-        <f>Sheet2!J21</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="49">
         <f>Sheet2!K21</f>
         <v>0</v>
       </c>
-      <c r="M25" s="49">
-        <f>Sheet2!L21</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="50">
+      <c r="L25" s="50">
         <f>Sheet2!M21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="63"/>
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A26" s="68"/>
       <c r="B26" s="52">
         <f>Sheet2!A22</f>
         <v>0</v>
@@ -2918,36 +2771,28 @@
         <v>0</v>
       </c>
       <c r="J26" s="54">
-        <f>Sheet2!I22</f>
+        <f>Sheet2!J22</f>
         <v>0</v>
       </c>
       <c r="K26" s="54">
-        <f>Sheet2!J22</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="54">
         <f>Sheet2!K22</f>
         <v>0</v>
       </c>
-      <c r="M26" s="54">
-        <f>Sheet2!L22</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="55">
+      <c r="L26" s="55">
         <f>Sheet2!M22</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C2:L2"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="A6:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2962,369 +2807,376 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="80"/>
+    <col min="1" max="1" width="4.5" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2.25" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="2.25" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="79" t="s">
+      <c r="B1" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="79" t="s">
-        <v>14</v>
+      <c r="F1" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="13.5">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
     </row>
     <row r="4" spans="1:13" ht="13.5">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:13" ht="13.5">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="1:13" ht="13.5">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" ht="13.5">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13" ht="13.5">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:13" ht="13.5">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="13.5">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" ht="13.5">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="1:13" ht="13.5">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" ht="13.5">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="1:13" ht="13.5">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="1:13" ht="13.5">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
     </row>
     <row r="16" spans="1:13" ht="13.5">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:13" ht="13.5">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="1:13" ht="13.5">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="1:13" ht="13.5">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="1:13" ht="13.5">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
     </row>
     <row r="21" spans="1:13" ht="13.5">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
     </row>
     <row r="22" spans="1:13" ht="13.5">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
